--- a/database/seeders/excel/Pasta1.xlsx
+++ b/database/seeders/excel/Pasta1.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Seeder-Product" sheetId="3" r:id="rId1"/>
+    <sheet name="Plan1" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -656,10 +657,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CG20"/>
+  <dimension ref="A1:CG19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="CG11" sqref="A2:CG11"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3398,22 +3399,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:85">
-      <c r="X12"/>
+    <row r="13" spans="1:85">
+      <c r="AS13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AZ13" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="14" spans="1:85">
-      <c r="AS14" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AZ14" s="2" t="s">
-        <v>69</v>
-      </c>
+    <row r="15" spans="1:85">
+      <c r="AQ15" s="2"/>
     </row>
-    <row r="16" spans="1:85">
-      <c r="AQ16" s="2"/>
-    </row>
-    <row r="20" spans="58:58">
-      <c r="BF20" s="2" t="s">
+    <row r="19" spans="58:58">
+      <c r="BF19" s="2" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3421,4 +3419,16 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>